--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/12oceanbetBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/12oceanbetBrokenData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="222">
   <si>
     <t>Zeus</t>
   </si>
@@ -615,6 +615,72 @@
   </si>
   <si>
     <t>5836  Game ID = 23750  Game Provider Name = RelaxGaming   Game Name =  Wild Chapo  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/wildchapo_rg.jpg</t>
+  </si>
+  <si>
+    <t>1  2137  Game ID = 67643  Game Provider Name = ZeusPlay  Game Name = Fairy's Golden Path  cod  : 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/55a62e9e11ac4854b00d365963a29861e0dd72da/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>2  1222  Game ID = 67435  Game Provider Name = Spadegaming  Game Name = Candy Pop  cod  : 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>3  3221  Game ID = 23754  Game Provider Name = RelaxGaming  Game Name = Iron Bank  cod  : 404   src = https://resources.oceanbet.io/products/outcomebet/ironbank_rg.jpg</t>
+  </si>
+  <si>
+    <t>4  4869  Game ID = 68480  Game Provider Name = Gamzix  Game Name = Rich Granny  cod  : 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>5  4089  Game ID = 23753  Game Provider Name = RelaxGaming  Game Name = Money Train 2  cod  : 404   src = https://resources.oceanbet.io/products/outcomebet/moneytrain2_rg.jpg</t>
+  </si>
+  <si>
+    <t>6  3650  Game ID = 1190526  Game Provider Name = Amatic  Game Name = Lovely Lady  cod  : 403   src = https://resources.oceanbet.io/products/</t>
+  </si>
+  <si>
+    <t>7  6304  Game ID = 23750  Game Provider Name = RelaxGaming  Game Name = Wild Chapo  cod  : 404   src = https://resources.oceanbet.io/products/outcomebet/wildchapo_rg.jpg</t>
+  </si>
+  <si>
+    <t>8  5668  Game ID = 23751  Game Provider Name = RelaxGaming  Game Name = Temple Tumble Megaways  cod  : 404   src = https://resources.oceanbet.io/products/outcomebet/templetumble_rg.jpg</t>
+  </si>
+  <si>
+    <t>4  4089  Game ID = 23753  Game Provider Name = RelaxGaming  Game Name = Money Train 2  cod  : 404   src = https://resources.oceanbet.io/products/outcomebet/moneytrain2_rg.jpg</t>
+  </si>
+  <si>
+    <t>5  4869  Game ID = 68480  Game Provider Name = Gamzix  Game Name = Rich Granny  cod  : 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>8  5281  Game ID = 23752  Game Provider Name = RelaxGaming  Game Name = Snake Arena  cod  : 404   src = https://resources.oceanbet.io/products/outcomebet/snakearena_rg.jpg</t>
+  </si>
+  <si>
+    <t>9  5668  Game ID = 23751  Game Provider Name = RelaxGaming  Game Name = Temple Tumble Megaways  cod  : 404   src = https://resources.oceanbet.io/products/outcomebet/templetumble_rg.jpg</t>
+  </si>
+  <si>
+    <t>414  Game ID = 78959  Game Provider Name = Microgaming   Game Name =  Amazon - Lost Gold  src = https://agstatic.com/games/mg/amazon_lost_gold.jpg</t>
+  </si>
+  <si>
+    <t>1222  Game ID = 67435  Game Provider Name = Spadegaming   Game Name =  Candy Pop  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2137  Game ID = 67643  Game Provider Name = ZeusPlay   Game Name =  Fairy's Golden Path  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/55a62e9e11ac4854b00d365963a29861e0dd72da/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>3221  Game ID = 23754  Game Provider Name = RelaxGaming   Game Name =  Iron Bank  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/ironbank_rg.jpg</t>
+  </si>
+  <si>
+    <t>3650  Game ID = 1190526  Game Provider Name = Amatic   Game Name =  Lovely Lady  cod = 403   src = https://resources.oceanbet.io/products/</t>
+  </si>
+  <si>
+    <t>4089  Game ID = 23753  Game Provider Name = RelaxGaming   Game Name =  Money Train 2  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/moneytrain2_rg.jpg</t>
+  </si>
+  <si>
+    <t>4869  Game ID = 68480  Game Provider Name = Gamzix   Game Name =  Rich Granny  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>5281  Game ID = 23752  Game Provider Name = RelaxGaming   Game Name =  Snake Arena  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/snakearena_rg.jpg</t>
+  </si>
+  <si>
+    <t>5668  Game ID = 23751  Game Provider Name = RelaxGaming   Game Name =  Temple Tumble Megaways  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/templetumble_rg.jpg</t>
+  </si>
+  <si>
+    <t>6305  Game ID = 23750  Game Provider Name = RelaxGaming   Game Name =  Wild Chapo  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/wildchapo_rg.jpg</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1737,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1682,37 +1748,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/12oceanbetBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/12oceanbetBrokenData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6713" uniqueCount="6035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6724" uniqueCount="6044">
   <si>
     <t>Zeus</t>
   </si>
@@ -18120,6 +18120,33 @@
   </si>
   <si>
     <t>6413 ID=54347 Provider=PragmaticPlay Name=Wild West Gold Megaways cod=28 description=Session not found ResponseObject=null</t>
+  </si>
+  <si>
+    <t>630 ID=27692 Provider=PariPlay Name=Bai She Zhuan cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>3223 ID=23754 Provider=RelaxGaming Name=Iron Bank cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>4007 ID=26799 Provider=Wazdan Name=Miami Beach cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>4091 ID=23753 Provider=RelaxGaming Name=Money Train 2 cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5283 ID=23752 Provider=RelaxGaming Name=Snake Arena cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5420 ID=29888 Provider=NoLimitCity Name=Starstruck cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>5669 ID=23751 Provider=RelaxGaming Name=Temple Tumble Megaways cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
+  </si>
+  <si>
+    <t>5879 ID=29805 Provider=Microgaming Name=Thunderstruck Wild Lightning cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>6306 ID=23750 Provider=RelaxGaming Name=Wild Chapo cod=21 description=SESSION_INVALID_PARAMS ResponseObject=null</t>
   </si>
 </sst>
 </file>
@@ -18822,7 +18849,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A1197"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18833,5987 +18860,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5383</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5384</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5385</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5386</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5387</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5388</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5389</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5390</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5391</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>5392</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5393</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>5394</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>5395</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>5396</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>5397</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>5398</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>5399</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>5401</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>5402</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>5403</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>5404</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>5405</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>5406</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>5407</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>5408</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>5409</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>5410</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>5411</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>5412</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>5413</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>5414</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>5415</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>5416</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>5417</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>5418</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>5419</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>5420</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>5421</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>5422</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>5423</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>5424</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>5425</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>5426</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>5427</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>5428</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>5429</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>5430</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>5431</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>5432</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>5433</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>5434</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>5435</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>5436</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>5437</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>5438</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>5439</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>5440</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>5441</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>5442</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>5443</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>5444</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>5445</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>5446</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>5447</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>5448</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>5449</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>5450</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>5451</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>5452</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>5453</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>5454</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>5455</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>5456</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>5457</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>5458</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>5459</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>5460</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>5461</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>5462</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>5463</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>5464</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>5465</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>5466</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>5467</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>5468</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>5469</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>5470</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>5471</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>5472</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>5473</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>5474</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>5475</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>5476</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>5477</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>5478</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>5479</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>5480</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>5481</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>5482</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>5483</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>5484</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>5485</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>5486</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>5487</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>5488</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>5489</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>5490</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>5491</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>5492</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>5493</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>5494</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>5495</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>5496</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>5497</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>5498</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>5499</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>5501</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>5502</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>5503</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>5504</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>5505</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>5506</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>5507</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>5508</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>5509</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>5510</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>5511</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>5512</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>5513</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>5514</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>5515</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>5516</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>5517</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>5518</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>5519</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>5520</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>5521</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>5522</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>5523</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>5524</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>5525</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>5526</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>5527</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>5528</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>5529</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>5530</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>5531</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>5532</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>5533</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>5534</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>5535</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>5536</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>5537</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>5538</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>5539</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>5540</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>5541</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>5542</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>5543</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>5544</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>5545</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>5546</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>5547</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>5548</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>5549</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>5551</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>5552</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>5553</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>5554</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>5555</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>5556</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>5557</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>5558</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>5559</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>5560</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>5561</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>5562</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>5563</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>5564</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>5565</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>5566</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>5567</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>5568</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>5569</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>5570</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>5571</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>5572</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>5573</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>5574</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>5575</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>5576</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>5577</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>5578</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>5579</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>5580</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>5581</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>5582</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>5583</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>5584</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>5585</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>5586</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>5587</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>5588</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>5589</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>5590</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>5591</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>5592</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>5593</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>5594</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>5595</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>5596</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>5597</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>5598</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>5601</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>5602</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>5603</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>5604</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>5606</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>5607</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>5608</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>5609</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>5610</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>5611</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>5612</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>5613</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>5614</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>5615</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>5616</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>5617</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>5618</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>5619</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>5620</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>5621</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>5622</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>5623</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>5624</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>5625</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>5626</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>5627</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>5628</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>5629</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>5630</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>5631</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>5632</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>5633</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>5634</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>5635</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>5636</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>5637</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>5638</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>5639</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>5641</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>5642</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>5643</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>5644</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>5645</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>5646</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="s">
-        <v>5647</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="s">
-        <v>5648</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="s">
-        <v>5649</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="s">
-        <v>5650</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="s">
-        <v>5651</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="s">
-        <v>5652</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="s">
-        <v>5653</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="s">
-        <v>5654</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="s">
-        <v>5655</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="s">
-        <v>5656</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="s">
-        <v>5657</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="s">
-        <v>5658</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="s">
-        <v>5659</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="s">
-        <v>5660</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="s">
-        <v>5661</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="s">
-        <v>5662</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="s">
-        <v>5663</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="s">
-        <v>5664</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>5665</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>5666</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>5667</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>5668</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>5669</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>5670</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>5671</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>5672</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>5673</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>5674</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>5675</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>5676</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>5677</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>5678</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>5679</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="s">
-        <v>5680</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="s">
-        <v>5681</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="s">
-        <v>5682</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="s">
-        <v>5683</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="s">
-        <v>5684</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="s">
-        <v>5685</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="s">
-        <v>5686</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="s">
-        <v>5687</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="s">
-        <v>5688</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="s">
-        <v>5689</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="s">
-        <v>5690</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="s">
-        <v>5691</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="s">
-        <v>5692</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="s">
-        <v>5693</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="s">
-        <v>5694</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="s">
-        <v>5695</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="s">
-        <v>5696</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="s">
-        <v>5697</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="s">
-        <v>5698</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="s">
-        <v>5699</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s">
-        <v>5701</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s">
-        <v>5702</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="s">
-        <v>5703</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="s">
-        <v>5704</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="s">
-        <v>5705</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="s">
-        <v>5706</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="s">
-        <v>5707</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>5708</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="s">
-        <v>5709</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="s">
-        <v>5710</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="s">
-        <v>5711</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="s">
-        <v>5712</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="s">
-        <v>5713</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="s">
-        <v>5714</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="s">
-        <v>5715</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="s">
-        <v>5716</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="s">
-        <v>5717</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="s">
-        <v>5718</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="s">
-        <v>5719</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="s">
-        <v>5720</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s">
-        <v>5721</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="s">
-        <v>5722</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="s">
-        <v>5723</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="s">
-        <v>5724</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="s">
-        <v>5725</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="s">
-        <v>5726</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="s">
-        <v>5727</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="s">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="s">
-        <v>5729</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="s">
-        <v>5730</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="s">
-        <v>5731</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="s">
-        <v>5732</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="s">
-        <v>5733</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="s">
-        <v>5734</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="s">
-        <v>5735</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="s">
-        <v>5736</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="s">
-        <v>5737</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="s">
-        <v>5738</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="s">
-        <v>5739</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="s">
-        <v>5740</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="s">
-        <v>5741</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="s">
-        <v>5742</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="s">
-        <v>5743</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="s">
-        <v>5744</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="s">
-        <v>5745</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="s">
-        <v>5746</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="s">
-        <v>5747</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="s">
-        <v>5748</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="s">
-        <v>5749</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="s">
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="s">
-        <v>5751</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="s">
-        <v>5752</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="s">
-        <v>5753</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="s">
-        <v>5754</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="s">
-        <v>5755</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="s">
-        <v>5756</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="s">
-        <v>5757</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="s">
-        <v>5758</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="s">
-        <v>5759</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="s">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="s">
-        <v>5761</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="s">
-        <v>5762</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="s">
-        <v>5763</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="s">
-        <v>5764</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="s">
-        <v>5765</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="s">
-        <v>5766</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="s">
-        <v>5767</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="s">
-        <v>5768</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="s">
-        <v>5769</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="s">
-        <v>5770</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="s">
-        <v>5771</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="s">
-        <v>5772</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="s">
-        <v>5773</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="s">
-        <v>5774</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="s">
-        <v>5775</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="s">
-        <v>5776</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="s">
-        <v>5777</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="s">
-        <v>5778</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="s">
-        <v>5779</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="s">
-        <v>5780</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="s">
-        <v>5781</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="s">
-        <v>5782</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="s">
-        <v>5783</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="s">
-        <v>5784</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="s">
-        <v>5785</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="s">
-        <v>5786</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="s">
-        <v>5787</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="s">
-        <v>5788</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="s">
-        <v>5789</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="s">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="s">
-        <v>5791</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="s">
-        <v>5792</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="s">
-        <v>5793</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="s">
-        <v>5794</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="s">
-        <v>5795</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="s">
-        <v>5796</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="s">
-        <v>5797</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="s">
-        <v>5798</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="s">
-        <v>5799</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="s">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="s">
-        <v>5801</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="s">
-        <v>5802</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="s">
-        <v>5803</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="s">
-        <v>5804</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="s">
-        <v>5805</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="s">
-        <v>5806</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="s">
-        <v>5807</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="s">
-        <v>5808</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="s">
-        <v>5809</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="s">
-        <v>5810</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="s">
-        <v>5811</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="s">
-        <v>5812</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="s">
-        <v>5813</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="s">
-        <v>5814</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="s">
-        <v>5815</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="s">
-        <v>5816</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="s">
-        <v>5817</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="s">
-        <v>5818</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="s">
-        <v>5819</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="s">
-        <v>5820</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="s">
-        <v>5821</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="s">
-        <v>5822</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="s">
-        <v>5823</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="s">
-        <v>5824</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="s">
-        <v>5825</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="s">
-        <v>5826</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="s">
-        <v>5827</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="s">
-        <v>5828</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="s">
-        <v>5829</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="s">
-        <v>5830</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="s">
-        <v>5831</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="s">
-        <v>5832</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="s">
-        <v>5833</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="s">
-        <v>5834</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="s">
-        <v>5835</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="s">
-        <v>5836</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="s">
-        <v>5837</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="s">
-        <v>5838</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="s">
-        <v>5839</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="s">
-        <v>5840</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="s">
-        <v>5841</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="s">
-        <v>5842</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="s">
-        <v>5843</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="s">
-        <v>5844</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="s">
-        <v>5845</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="s">
-        <v>5846</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="s">
-        <v>5847</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="s">
-        <v>5848</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="s">
-        <v>5849</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="s">
-        <v>5850</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="s">
-        <v>5851</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="s">
-        <v>5852</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="s">
-        <v>5853</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="s">
-        <v>5854</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="s">
-        <v>5855</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="s">
-        <v>5856</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="s">
-        <v>5857</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="s">
-        <v>5858</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="s">
-        <v>5859</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="s">
-        <v>5860</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="s">
-        <v>5861</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="s">
-        <v>5862</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="s">
-        <v>5863</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="s">
-        <v>5864</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="s">
-        <v>5865</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="s">
-        <v>5866</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="s">
-        <v>5867</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="s">
-        <v>5868</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="s">
-        <v>5869</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="s">
-        <v>5870</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="s">
-        <v>5871</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="s">
-        <v>5872</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="s">
-        <v>5873</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="s">
-        <v>5874</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="s">
-        <v>5875</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="s">
-        <v>5876</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="s">
-        <v>5877</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="s">
-        <v>5878</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="s">
-        <v>5879</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="s">
-        <v>5880</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="s">
-        <v>5881</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="s">
-        <v>5882</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="s">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="s">
-        <v>5884</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="s">
-        <v>5885</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="s">
-        <v>5886</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="s">
-        <v>5887</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="s">
-        <v>5888</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="s">
-        <v>5889</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="s">
-        <v>5890</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="s">
-        <v>5891</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="s">
-        <v>5892</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="s">
-        <v>5893</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="s">
-        <v>5894</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="s">
-        <v>5895</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="s">
-        <v>5896</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="s">
-        <v>5897</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="s">
-        <v>5898</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="s">
-        <v>5899</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="s">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="s">
-        <v>5901</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="s">
-        <v>5902</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="s">
-        <v>5903</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="s">
-        <v>5904</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="s">
-        <v>5905</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="s">
-        <v>5906</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="s">
-        <v>5907</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="s">
-        <v>5908</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="s">
-        <v>5909</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="s">
-        <v>5910</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="s">
-        <v>5911</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="s">
-        <v>5912</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="s">
-        <v>5913</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="s">
-        <v>5914</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="s">
-        <v>5915</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="s">
-        <v>5916</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="s">
-        <v>5917</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="s">
-        <v>5918</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="s">
-        <v>5919</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="s">
-        <v>5920</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="s">
-        <v>5921</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="s">
-        <v>5922</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="s">
-        <v>5923</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="s">
-        <v>5924</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="s">
-        <v>5925</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="s">
-        <v>5926</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="s">
-        <v>5927</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="s">
-        <v>5928</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="s">
-        <v>5929</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="s">
-        <v>5930</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="s">
-        <v>5931</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="s">
-        <v>5932</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="s">
-        <v>5933</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="s">
-        <v>5934</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="s">
-        <v>5935</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="s">
-        <v>5936</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="s">
-        <v>5937</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="s">
-        <v>5938</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="s">
-        <v>5939</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="s">
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="s">
-        <v>5941</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="s">
-        <v>5942</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="s">
-        <v>5943</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="s">
-        <v>5944</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="s">
-        <v>5945</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="s">
-        <v>5946</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="s">
-        <v>5947</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="s">
-        <v>5948</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="s">
-        <v>5949</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="s">
-        <v>5950</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="s">
-        <v>5951</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="s">
-        <v>5952</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="s">
-        <v>5953</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="s">
-        <v>5954</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="s">
-        <v>5955</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="s">
-        <v>5956</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="s">
-        <v>5957</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="s">
-        <v>5958</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="s">
-        <v>5959</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="s">
-        <v>5960</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="s">
-        <v>5961</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="s">
-        <v>5962</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="s">
-        <v>5963</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="s">
-        <v>5964</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="s">
-        <v>5965</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="s">
-        <v>5966</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="s">
-        <v>5967</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="s">
-        <v>5968</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="s">
-        <v>5969</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="s">
-        <v>5970</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="s">
-        <v>5971</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="s">
-        <v>5972</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="s">
-        <v>5973</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="s">
-        <v>5974</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="s">
-        <v>5975</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="s">
-        <v>5976</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="s">
-        <v>5977</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="s">
-        <v>5978</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="s">
-        <v>5979</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="s">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="s">
-        <v>5981</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="s">
-        <v>5982</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="s">
-        <v>5983</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="s">
-        <v>5984</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="s">
-        <v>5985</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="s">
-        <v>5986</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="s">
-        <v>5987</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="s">
-        <v>5988</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="s">
-        <v>5989</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="s">
-        <v>5990</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="s">
-        <v>5991</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="s">
-        <v>5992</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="s">
-        <v>5993</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="s">
-        <v>5994</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="s">
-        <v>5995</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="s">
-        <v>5996</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="s">
-        <v>5997</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="s">
-        <v>5998</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="s">
-        <v>5999</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="s">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="s">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="s">
-        <v>6001</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="s">
-        <v>6002</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="s">
-        <v>6003</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="s">
-        <v>6004</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="s">
-        <v>6005</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="s">
-        <v>6006</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="s">
-        <v>6007</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="s">
-        <v>6008</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="s">
-        <v>6009</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="s">
-        <v>6010</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="s">
-        <v>6011</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="s">
-        <v>6012</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="s">
-        <v>6013</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="s">
-        <v>6014</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="s">
-        <v>6015</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="s">
-        <v>6016</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="s">
-        <v>6017</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="s">
-        <v>6018</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="s">
-        <v>6019</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="s">
-        <v>6020</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="s">
-        <v>6021</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="s">
-        <v>6022</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="s">
-        <v>6023</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="s">
-        <v>6024</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="s">
-        <v>6025</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="s">
-        <v>6026</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="s">
-        <v>6027</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="s">
-        <v>6028</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="s">
-        <v>1977</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="s">
-        <v>1978</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="s">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="s">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="s">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="s">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="s">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="s">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="s">
-        <v>1989</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="s">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="s">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="s">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="s">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="s">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="s">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="s">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="s">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="s">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="s">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="s">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="s">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="s">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="s">
-        <v>2028</v>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="s">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="s">
-        <v>6029</v>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="s">
-        <v>6030</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="s">
-        <v>6031</v>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="s">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="s">
-        <v>2039</v>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="s">
-        <v>2041</v>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="s">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="s">
-        <v>2065</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="s">
-        <v>2066</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="s">
-        <v>2067</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="s">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="s">
-        <v>2072</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="s">
-        <v>2077</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="s">
-        <v>2083</v>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="s">
-        <v>2085</v>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="s">
-        <v>2088</v>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="s">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="s">
-        <v>2093</v>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="s">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="s">
-        <v>2113</v>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="s">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="s">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="s">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="s">
-        <v>2124</v>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="s">
-        <v>2129</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="s">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="s">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="s">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="s">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="s">
-        <v>2173</v>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="s">
-        <v>2174</v>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="s">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="s">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" t="s">
-        <v>2178</v>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="s">
-        <v>2179</v>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="s">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="s">
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="s">
-        <v>2184</v>
-      </c>
-    </row>
-    <row r="857">
-      <c r="A857" t="s">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="858">
-      <c r="A858" t="s">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" t="s">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" t="s">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" t="s">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" t="s">
-        <v>2192</v>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" t="s">
-        <v>2193</v>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" t="s">
-        <v>2194</v>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" t="s">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="873">
-      <c r="A873" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="874">
-      <c r="A874" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="875">
-      <c r="A875" t="s">
-        <v>2203</v>
-      </c>
-    </row>
-    <row r="876">
-      <c r="A876" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="877">
-      <c r="A877" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="878">
-      <c r="A878" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="879">
-      <c r="A879" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="880">
-      <c r="A880" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="881">
-      <c r="A881" t="s">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="882">
-      <c r="A882" t="s">
-        <v>2210</v>
-      </c>
-    </row>
-    <row r="883">
-      <c r="A883" t="s">
-        <v>2211</v>
-      </c>
-    </row>
-    <row r="884">
-      <c r="A884" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="885">
-      <c r="A885" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="886">
-      <c r="A886" t="s">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="887">
-      <c r="A887" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="888">
-      <c r="A888" t="s">
-        <v>2216</v>
-      </c>
-    </row>
-    <row r="889">
-      <c r="A889" t="s">
-        <v>6032</v>
-      </c>
-    </row>
-    <row r="890">
-      <c r="A890" t="s">
-        <v>6033</v>
-      </c>
-    </row>
-    <row r="891">
-      <c r="A891" t="s">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="892">
-      <c r="A892" t="s">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="893">
-      <c r="A893" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="894">
-      <c r="A894" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="895">
-      <c r="A895" t="s">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="896">
-      <c r="A896" t="s">
-        <v>2224</v>
-      </c>
-    </row>
-    <row r="897">
-      <c r="A897" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="898">
-      <c r="A898" t="s">
-        <v>2226</v>
-      </c>
-    </row>
-    <row r="899">
-      <c r="A899" t="s">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="900">
-      <c r="A900" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="901">
-      <c r="A901" t="s">
-        <v>2229</v>
-      </c>
-    </row>
-    <row r="902">
-      <c r="A902" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="903">
-      <c r="A903" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="904">
-      <c r="A904" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="905">
-      <c r="A905" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="906">
-      <c r="A906" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="907">
-      <c r="A907" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="908">
-      <c r="A908" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="909">
-      <c r="A909" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="910">
-      <c r="A910" t="s">
-        <v>2238</v>
-      </c>
-    </row>
-    <row r="911">
-      <c r="A911" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="912">
-      <c r="A912" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="913">
-      <c r="A913" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="914">
-      <c r="A914" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="915">
-      <c r="A915" t="s">
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="916">
-      <c r="A916" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="917">
-      <c r="A917" t="s">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="918">
-      <c r="A918" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="919">
-      <c r="A919" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="920">
-      <c r="A920" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="921">
-      <c r="A921" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="922">
-      <c r="A922" t="s">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="923">
-      <c r="A923" t="s">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="924">
-      <c r="A924" t="s">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="925">
-      <c r="A925" t="s">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="926">
-      <c r="A926" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="927">
-      <c r="A927" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="928">
-      <c r="A928" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="s">
-        <v>2257</v>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="931">
-      <c r="A931" t="s">
-        <v>2259</v>
-      </c>
-    </row>
-    <row r="932">
-      <c r="A932" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="933">
-      <c r="A933" t="s">
-        <v>2261</v>
-      </c>
-    </row>
-    <row r="934">
-      <c r="A934" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="935">
-      <c r="A935" t="s">
-        <v>2263</v>
-      </c>
-    </row>
-    <row r="936">
-      <c r="A936" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="937">
-      <c r="A937" t="s">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="938">
-      <c r="A938" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="939">
-      <c r="A939" t="s">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="940">
-      <c r="A940" t="s">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="941">
-      <c r="A941" t="s">
-        <v>2269</v>
-      </c>
-    </row>
-    <row r="942">
-      <c r="A942" t="s">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="943">
-      <c r="A943" t="s">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="944">
-      <c r="A944" t="s">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="945">
-      <c r="A945" t="s">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="946">
-      <c r="A946" t="s">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="947">
-      <c r="A947" t="s">
-        <v>2275</v>
-      </c>
-    </row>
-    <row r="948">
-      <c r="A948" t="s">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="949">
-      <c r="A949" t="s">
-        <v>2277</v>
-      </c>
-    </row>
-    <row r="950">
-      <c r="A950" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="s">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="s">
-        <v>2283</v>
-      </c>
-    </row>
-    <row r="956">
-      <c r="A956" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="957">
-      <c r="A957" t="s">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="958">
-      <c r="A958" t="s">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="959">
-      <c r="A959" t="s">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="960">
-      <c r="A960" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="961">
-      <c r="A961" t="s">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="962">
-      <c r="A962" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="963">
-      <c r="A963" t="s">
-        <v>2291</v>
-      </c>
-    </row>
-    <row r="964">
-      <c r="A964" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="965">
-      <c r="A965" t="s">
-        <v>2293</v>
-      </c>
-    </row>
-    <row r="966">
-      <c r="A966" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="967">
-      <c r="A967" t="s">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="968">
-      <c r="A968" t="s">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="969">
-      <c r="A969" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="970">
-      <c r="A970" t="s">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="971">
-      <c r="A971" t="s">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="972">
-      <c r="A972" t="s">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="973">
-      <c r="A973" t="s">
-        <v>2301</v>
-      </c>
-    </row>
-    <row r="974">
-      <c r="A974" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="975">
-      <c r="A975" t="s">
-        <v>2303</v>
-      </c>
-    </row>
-    <row r="976">
-      <c r="A976" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="977">
-      <c r="A977" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="978">
-      <c r="A978" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="979">
-      <c r="A979" t="s">
-        <v>2307</v>
-      </c>
-    </row>
-    <row r="980">
-      <c r="A980" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="981">
-      <c r="A981" t="s">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="982">
-      <c r="A982" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="983">
-      <c r="A983" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="984">
-      <c r="A984" t="s">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="s">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="s">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="s">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="s">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="990">
-      <c r="A990" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="991">
-      <c r="A991" t="s">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="992">
-      <c r="A992" t="s">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="993">
-      <c r="A993" t="s">
-        <v>2321</v>
-      </c>
-    </row>
-    <row r="994">
-      <c r="A994" t="s">
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="995">
-      <c r="A995" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="996">
-      <c r="A996" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="997">
-      <c r="A997" t="s">
-        <v>6034</v>
-      </c>
-    </row>
-    <row r="998">
-      <c r="A998" t="s">
-        <v>3810</v>
-      </c>
-    </row>
-    <row r="999">
-      <c r="A999" t="s">
-        <v>2327</v>
-      </c>
-    </row>
-    <row r="1000">
-      <c r="A1000" t="s">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="s">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="s">
-        <v>2330</v>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="s">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="s">
-        <v>2333</v>
-      </c>
-    </row>
-    <row r="1006">
-      <c r="A1006" t="s">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="1007">
-      <c r="A1007" t="s">
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="1008">
-      <c r="A1008" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="1009">
-      <c r="A1009" t="s">
-        <v>2337</v>
-      </c>
-    </row>
-    <row r="1010">
-      <c r="A1010" t="s">
-        <v>2338</v>
-      </c>
-    </row>
-    <row r="1011">
-      <c r="A1011" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="1012">
-      <c r="A1012" t="s">
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="1013">
-      <c r="A1013" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="1014">
-      <c r="A1014" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="1015">
-      <c r="A1015" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="1016">
-      <c r="A1016" t="s">
-        <v>2344</v>
-      </c>
-    </row>
-    <row r="1017">
-      <c r="A1017" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="1018">
-      <c r="A1018" t="s">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="1019">
-      <c r="A1019" t="s">
-        <v>2347</v>
-      </c>
-    </row>
-    <row r="1020">
-      <c r="A1020" t="s">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="1021">
-      <c r="A1021" t="s">
-        <v>2349</v>
-      </c>
-    </row>
-    <row r="1022">
-      <c r="A1022" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="1023">
-      <c r="A1023" t="s">
-        <v>2351</v>
-      </c>
-    </row>
-    <row r="1024">
-      <c r="A1024" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="1025">
-      <c r="A1025" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="s">
-        <v>2354</v>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="s">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="s">
-        <v>2357</v>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="s">
-        <v>2361</v>
-      </c>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="s">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="s">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="s">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="s">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="s">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" t="s">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="s">
-        <v>2375</v>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="s">
-        <v>2377</v>
-      </c>
-    </row>
-    <row r="1050">
-      <c r="A1050" t="s">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="s">
-        <v>2381</v>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="s">
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="s">
-        <v>2383</v>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" t="s">
-        <v>2384</v>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" t="s">
-        <v>2385</v>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="s">
-        <v>2386</v>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="s">
-        <v>2388</v>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="s">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="s">
-        <v>2390</v>
-      </c>
-    </row>
-    <row r="1063">
-      <c r="A1063" t="s">
-        <v>2391</v>
-      </c>
-    </row>
-    <row r="1064">
-      <c r="A1064" t="s">
-        <v>2392</v>
-      </c>
-    </row>
-    <row r="1065">
-      <c r="A1065" t="s">
-        <v>2393</v>
-      </c>
-    </row>
-    <row r="1066">
-      <c r="A1066" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="s">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="1069">
-      <c r="A1069" t="s">
-        <v>2397</v>
-      </c>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="s">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="s">
-        <v>2399</v>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="s">
-        <v>2401</v>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="s">
-        <v>2403</v>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="s">
-        <v>2404</v>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="A1077" t="s">
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="s">
-        <v>2406</v>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="s">
-        <v>2407</v>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="s">
-        <v>2408</v>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="s">
-        <v>2409</v>
-      </c>
-    </row>
-    <row r="1082">
-      <c r="A1082" t="s">
-        <v>2410</v>
-      </c>
-    </row>
-    <row r="1083">
-      <c r="A1083" t="s">
-        <v>2411</v>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="s">
-        <v>2412</v>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="s">
-        <v>2413</v>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="s">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="s">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="1097">
-      <c r="A1097" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="1098">
-      <c r="A1098" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="1099">
-      <c r="A1099" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="1100">
-      <c r="A1100" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="1101">
-      <c r="A1101" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="1102">
-      <c r="A1102" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="1103">
-      <c r="A1103" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="1104">
-      <c r="A1104" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="1106">
-      <c r="A1106" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="s">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="1108">
-      <c r="A1108" t="s">
-        <v>2436</v>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="s">
-        <v>2437</v>
-      </c>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="s">
-        <v>2438</v>
-      </c>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="s">
-        <v>2439</v>
-      </c>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="s">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="1113">
-      <c r="A1113" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="s">
-        <v>2442</v>
-      </c>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="s">
-        <v>2444</v>
-      </c>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="s">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="s">
-        <v>2446</v>
-      </c>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="s">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="s">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="s">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="s">
-        <v>2458</v>
-      </c>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="s">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="s">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="s">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="s">
-        <v>2464</v>
-      </c>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="s">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="s">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="s">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="s">
-        <v>2472</v>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="s">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="s">
-        <v>2474</v>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="s">
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="s">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="s">
-        <v>2477</v>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="s">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="s">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="s">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="s">
-        <v>2481</v>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="s">
-        <v>2482</v>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="s">
-        <v>2483</v>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="s">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="s">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="s">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="s">
-        <v>2487</v>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="s">
-        <v>2489</v>
-      </c>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="s">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="s">
-        <v>2491</v>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="s">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="s">
-        <v>2493</v>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="s">
-        <v>2494</v>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="s">
-        <v>2496</v>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="s">
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="s">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="s">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="s">
-        <v>2502</v>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="s">
-        <v>2507</v>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="s">
-        <v>2512</v>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="s">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="s">
-        <v>2516</v>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="s">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="s">
-        <v>2518</v>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="s">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="s">
-        <v>2522</v>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="s">
-        <v>2523</v>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="s">
-        <v>2524</v>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="s">
-        <v>2525</v>
+        <v>6043</v>
       </c>
     </row>
   </sheetData>
